--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5248" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -938,10 +950,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -985,28 +997,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1031,28 +1043,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1140,10 +1152,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1187,28 +1199,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1233,28 +1245,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1313,10 +1325,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1360,28 +1372,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1406,28 +1418,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1486,10 +1498,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1533,28 +1545,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1579,28 +1591,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1659,10 +1671,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1706,28 +1718,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1752,28 +1764,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1832,10 +1844,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1879,28 +1891,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1925,28 +1937,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2034,10 +2046,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2081,28 +2093,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2127,28 +2139,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2207,10 +2219,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2254,28 +2266,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2300,28 +2312,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2380,10 +2392,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2427,28 +2439,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2473,28 +2485,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2553,10 +2565,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2600,28 +2612,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2646,28 +2658,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2726,10 +2738,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2773,28 +2785,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2819,28 +2831,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2899,10 +2911,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2946,28 +2958,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2992,28 +3004,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3072,10 +3084,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3119,28 +3131,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3165,28 +3177,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3245,10 +3257,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3292,28 +3304,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3338,28 +3350,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3418,10 +3430,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3465,28 +3477,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3511,28 +3523,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3678,10 +3690,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3725,28 +3737,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3771,28 +3783,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3938,10 +3950,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3985,28 +3997,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4031,28 +4043,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4111,10 +4123,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4158,28 +4170,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4204,28 +4216,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4313,10 +4325,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4360,28 +4372,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4406,28 +4418,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4486,10 +4498,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4533,28 +4545,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4579,28 +4591,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4659,10 +4671,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4706,28 +4718,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4752,28 +4764,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4861,10 +4873,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4908,28 +4920,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4954,28 +4966,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5034,10 +5046,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5081,28 +5093,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5127,28 +5139,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5207,10 +5219,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5254,28 +5266,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5300,28 +5312,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5380,10 +5392,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5427,28 +5439,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5473,28 +5485,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5611,10 +5623,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5658,28 +5670,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5704,28 +5716,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5784,10 +5796,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5831,28 +5843,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5877,28 +5889,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5957,10 +5969,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6004,28 +6016,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6050,28 +6062,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6188,10 +6200,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6235,28 +6247,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6281,28 +6293,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6361,10 +6373,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6408,28 +6420,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6454,28 +6466,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6534,10 +6546,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6581,28 +6593,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6627,28 +6639,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6707,10 +6719,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6754,28 +6766,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6800,28 +6812,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6880,10 +6892,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6927,28 +6939,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6973,28 +6985,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7082,10 +7094,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7129,28 +7141,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7175,28 +7187,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7255,10 +7267,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7302,28 +7314,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7348,28 +7360,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7428,10 +7440,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7475,28 +7487,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7521,28 +7533,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7601,10 +7613,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7648,28 +7660,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7694,28 +7706,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7774,10 +7786,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7821,28 +7833,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7867,28 +7879,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7947,10 +7959,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -7994,28 +8006,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8040,28 +8052,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8120,10 +8132,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8167,28 +8179,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8213,28 +8225,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8293,10 +8305,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8340,28 +8352,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8386,28 +8398,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8495,10 +8507,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8542,28 +8554,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8588,28 +8600,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8668,10 +8680,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8715,28 +8727,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8761,28 +8773,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8899,10 +8911,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8946,28 +8958,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8992,28 +9004,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9101,10 +9113,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9148,28 +9160,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9194,28 +9206,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9274,10 +9286,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9321,28 +9333,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9367,28 +9379,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9476,10 +9488,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9523,28 +9535,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9569,28 +9581,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9649,10 +9661,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9696,28 +9708,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9742,28 +9754,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9967,10 +9979,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10014,28 +10026,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10060,28 +10072,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10140,10 +10152,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10187,28 +10199,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10233,28 +10245,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10313,10 +10325,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10360,28 +10372,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10406,28 +10418,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10602,10 +10614,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="2" t="s">
+      <c r="J363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10649,28 +10661,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="2">
+      <c r="A365" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="2">
+      <c r="C365" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10695,28 +10707,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="2">
+      <c r="C367" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="2">
+      <c r="D367" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="2">
+      <c r="I367" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10775,10 +10787,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="2" t="s">
+      <c r="J369" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10822,28 +10834,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="2">
+      <c r="A371" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="2">
+      <c r="C371" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10868,28 +10880,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="2">
+      <c r="C373" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="2">
+      <c r="D373" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="2">
+      <c r="I373" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10948,10 +10960,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="2" t="s">
+      <c r="J375" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -10995,28 +11007,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="2">
+      <c r="A377" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="2">
+      <c r="C377" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11041,28 +11053,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="2">
+      <c r="C379" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="2">
+      <c r="D379" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="2">
+      <c r="I379" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11121,10 +11133,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="2" t="s">
+      <c r="J381" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11168,28 +11180,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="2">
+      <c r="A383" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="2">
+      <c r="C383" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11214,28 +11226,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="2">
+      <c r="C385" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="2">
+      <c r="D385" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="2">
+      <c r="I385" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11294,10 +11306,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="2" t="s">
+      <c r="J387" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11341,28 +11353,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="2">
+      <c r="A389" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="2">
+      <c r="C389" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11387,28 +11399,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="2">
+      <c r="B391" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="2">
+      <c r="C391" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="2">
+      <c r="D391" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="2">
+      <c r="E391" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="2">
+      <c r="F391" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="2">
+      <c r="G391" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="2">
+      <c r="H391" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="2">
+      <c r="I391" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11467,10 +11479,10 @@
       <c r="I393">
         <f>((C393-C392)^2+(D393- D392)^2)^.5</f>
       </c>
-      <c r="J393" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K393" s="2" t="s">
+      <c r="J393" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K393" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L393" t="n">
@@ -11514,28 +11526,28 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="s" s="2">
+      <c r="A395" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B395" t="s" s="2">
+      <c r="B395" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C395" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D395" t="s" s="2">
+      <c r="C395" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D395" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E395" t="s" s="2">
+      <c r="E395" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F395" t="s" s="2">
+      <c r="F395" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G395" t="s" s="2">
+      <c r="G395" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H395" t="s" s="2">
+      <c r="H395" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11560,28 +11572,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="B397" t="s" s="2">
+      <c r="B397" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C397" t="s" s="2">
+      <c r="C397" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D397" t="s" s="2">
+      <c r="D397" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E397" t="s" s="2">
+      <c r="E397" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F397" t="s" s="2">
+      <c r="F397" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G397" t="s" s="2">
+      <c r="G397" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H397" t="s" s="2">
+      <c r="H397" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I397" t="s" s="2">
+      <c r="I397" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11727,10 +11739,10 @@
       <c r="I402">
         <f>((C402-C401)^2+(D402- D401)^2)^.5</f>
       </c>
-      <c r="J402" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K402" s="2" t="s">
+      <c r="J402" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K402" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L402" t="n">
@@ -11774,28 +11786,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="s" s="2">
+      <c r="A404" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C404" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D404" t="s" s="2">
+      <c r="C404" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D404" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11820,28 +11832,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="B406" t="s" s="2">
+      <c r="B406" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C406" t="s" s="2">
+      <c r="C406" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D406" t="s" s="2">
+      <c r="D406" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E406" t="s" s="2">
+      <c r="E406" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F406" t="s" s="2">
+      <c r="F406" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G406" t="s" s="2">
+      <c r="G406" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H406" t="s" s="2">
+      <c r="H406" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I406" t="s" s="2">
+      <c r="I406" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11929,10 +11941,10 @@
       <c r="I409">
         <f>((C409-C408)^2+(D409- D408)^2)^.5</f>
       </c>
-      <c r="J409" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K409" s="2" t="s">
+      <c r="J409" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K409" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L409" t="n">
@@ -11976,28 +11988,28 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="s" s="2">
+      <c r="A411" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B411" t="s" s="2">
+      <c r="B411" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C411" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D411" t="s" s="2">
+      <c r="C411" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D411" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E411" t="s" s="2">
+      <c r="E411" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F411" t="s" s="2">
+      <c r="F411" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G411" t="s" s="2">
+      <c r="G411" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H411" t="s" s="2">
+      <c r="H411" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12022,28 +12034,28 @@
       </c>
     </row>
     <row r="413">
-      <c r="B413" t="s" s="2">
+      <c r="B413" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C413" t="s" s="2">
+      <c r="C413" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D413" t="s" s="2">
+      <c r="D413" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E413" t="s" s="2">
+      <c r="E413" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F413" t="s" s="2">
+      <c r="F413" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G413" t="s" s="2">
+      <c r="G413" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H413" t="s" s="2">
+      <c r="H413" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I413" t="s" s="2">
+      <c r="I413" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12131,10 +12143,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="2" t="s">
+      <c r="J416" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
